--- a/t/regression/xlsx_files/formulashared.xlsx
+++ b/t/regression/xlsx_files/formulashared.xlsx
@@ -11,6 +11,10 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
@@ -62,8 +66,54 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+      <sheetName val="Sheet4"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1">
+        <row r="3">
+          <cell r="C3">
+            <v>5</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1">
+            <v>1234</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -349,13 +399,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1">
@@ -430,7 +480,7 @@
       </c>
       <c r="D4">
         <f t="shared" si="2"/>
-        <v>81</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -550,6 +600,16 @@
       <c r="D11">
         <f t="shared" si="2"/>
         <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f>A1+42+[1]Sheet1!$C$3</f>
+        <v>57</v>
+      </c>
+      <c r="B13">
+        <f>B1+42+[2]Sheet1!$A$1</f>
+        <v>1277</v>
       </c>
     </row>
   </sheetData>
@@ -563,7 +623,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -575,7 +635,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/t/regression/xlsx_files/formulashared.xlsx
+++ b/t/regression/xlsx_files/formulashared.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="12315" windowHeight="7905"/>
+    <workbookView xWindow="90" yWindow="90" windowWidth="6840" windowHeight="5700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -76,16 +76,16 @@
       <sheetName val="Sheet4"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1">
+      <sheetData sheetId="0">
         <row r="3">
           <cell r="C3">
             <v>5</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -96,8 +96,13 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet With Spaces"/>
+      <sheetName val="Sheet's &quot;nam({e})!&quot;"/>
     </sheetNames>
+    <definedNames>
+      <definedName name="EXTNAME1" refersTo="='Sheet1'!$A$2"/>
+      <definedName name="NAMED" refersTo="='Sheet With Spaces'!$A$2"/>
+    </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="1">
@@ -105,8 +110,31 @@
             <v>1234</v>
           </cell>
         </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>Named</v>
+          </cell>
+        </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="A1">
+            <v>42</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>BLABLA</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>BAR</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -399,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,6 +638,24 @@
       <c r="B13">
         <f>B1+42+[2]Sheet1!$A$1</f>
         <v>1277</v>
+      </c>
+      <c r="C13" t="str">
+        <f>"TEST(" &amp; [2]!EXTNAME1&amp; ")"</f>
+        <v>TEST(Named)</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <f>'[2]Sheet With Spaces'!$A$1</f>
+        <v>42</v>
+      </c>
+      <c r="C14" t="str">
+        <f>[2]!NAMED</f>
+        <v>BLABLA</v>
+      </c>
+      <c r="D14" t="str">
+        <f>'[2]Sheet''s "nam({e})!"'!$A$1</f>
+        <v>BAR</v>
       </c>
     </row>
   </sheetData>

--- a/t/regression/xlsx_files/formulashared.xlsx
+++ b/t/regression/xlsx_files/formulashared.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="90" windowWidth="6840" windowHeight="5700"/>
+    <workbookView xWindow="90" yWindow="150" windowWidth="6840" windowHeight="5640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -98,6 +98,7 @@
       <sheetName val="Sheet1"/>
       <sheetName val="Sheet With Spaces"/>
       <sheetName val="Sheet's &quot;nam({e})!&quot;"/>
+      <sheetName val="external01"/>
     </sheetNames>
     <definedNames>
       <definedName name="EXTNAME1" refersTo="='Sheet1'!$A$2"/>
@@ -135,6 +136,7 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -427,15 +429,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:AB14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AC7" sqref="AC6:AC7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>10</v>
       </c>
@@ -460,7 +462,7 @@
         <v>-98</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>20</v>
       </c>
@@ -477,7 +479,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>30</v>
       </c>
@@ -494,7 +496,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>40</v>
       </c>
@@ -511,7 +513,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>50</v>
       </c>
@@ -528,7 +530,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>60</v>
       </c>
@@ -544,8 +546,20 @@
         <f t="shared" si="2"/>
         <v>101</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="Y6">
+        <v>1</v>
+      </c>
+      <c r="Z6">
+        <v>2</v>
+      </c>
+      <c r="AA6">
+        <v>3</v>
+      </c>
+      <c r="AB6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>70</v>
       </c>
@@ -561,8 +575,20 @@
         <f t="shared" si="2"/>
         <v>111</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="Y7">
+        <v>10</v>
+      </c>
+      <c r="Z7">
+        <v>20</v>
+      </c>
+      <c r="AA7">
+        <v>30</v>
+      </c>
+      <c r="AB7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>80</v>
       </c>
@@ -578,8 +604,24 @@
         <f t="shared" si="2"/>
         <v>121</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="Y8">
+        <f>Y6+Y7</f>
+        <v>11</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" ref="Z8:AB8" si="3">Z6+Z7</f>
+        <v>22</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>90</v>
       </c>
@@ -596,7 +638,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>100</v>
       </c>
@@ -613,7 +655,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>110</v>
       </c>
@@ -630,7 +672,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13">
         <f>A1+42+[1]Sheet1!$C$3</f>
         <v>57</v>
@@ -644,7 +686,7 @@
         <v>TEST(Named)</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B14">
         <f>'[2]Sheet With Spaces'!$A$1</f>
         <v>42</v>
